--- a/data/T=1.xlsx
+++ b/data/T=1.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goood\Documents\wave\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA49EAC1-5833-4D9D-AB80-3EB794D4058A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93C735E-7457-4F7B-A261-3CF2F9EAB6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T=1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -173,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>'T=1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,10 +206,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$122</c:f>
+              <c:f>'T=1'!$A$2:$A$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -569,381 +569,375 @@
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>59.5</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$122</c:f>
+              <c:f>'T=1'!$C$2:$C$121</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="121"/>
+                <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>1.7287327302054841E-2</c:v>
+                  <c:v>4.7992050438596487E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9466769525679691E-2</c:v>
+                  <c:v>5.7785087719298238E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9197933468920211E-2</c:v>
+                  <c:v>6.4542214912280696E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2418121887930432E-2</c:v>
+                  <c:v>6.5751781798245618E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2938261215138979E-2</c:v>
+                  <c:v>7.2831003289473686E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3125277602449918E-2</c:v>
+                  <c:v>7.3680783991228072E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4878556233489962E-2</c:v>
+                  <c:v>7.5109649122807015E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.4668162797765148E-2</c:v>
+                  <c:v>8.5622258771929818E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5842859480561977E-2</c:v>
+                  <c:v>9.2893366228070179E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.76896463052575E-2</c:v>
+                  <c:v>9.4082373903508779E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8583818407087918E-2</c:v>
+                  <c:v>9.1077302631578941E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.8595506931294862E-2</c:v>
+                  <c:v>9.3712308114035081E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.0681908502232508E-2</c:v>
+                  <c:v>9.6501507675438594E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.2511162540617618E-2</c:v>
+                  <c:v>0.1033991228070175</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4293662482174999E-2</c:v>
+                  <c:v>0.1053728070175439</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7239170582322278E-2</c:v>
+                  <c:v>0.1032723410087719</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.8127498422049227E-2</c:v>
+                  <c:v>0.1072539747807018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.9962596722537812E-2</c:v>
+                  <c:v>0.1076377467105263</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.1113916356920773E-2</c:v>
+                  <c:v>0.1146827028508772</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.3825653972929377E-2</c:v>
+                  <c:v>0.1123732182017544</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.4304883465413657E-2</c:v>
+                  <c:v>0.1202576754385965</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8582883325151373E-2</c:v>
+                  <c:v>0.1184484649122807</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.7969235804287353E-2</c:v>
+                  <c:v>0.1264014528508772</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.4339481497066184E-2</c:v>
+                  <c:v>0.12288240131578949</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.4392079855997375E-2</c:v>
+                  <c:v>0.12915296052631581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.0996096032914888E-2</c:v>
+                  <c:v>0.1298793859649123</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.1218177992846618E-2</c:v>
+                  <c:v>0.13986773574561401</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.8114407274937472E-2</c:v>
+                  <c:v>0.138562225877193</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.8535194146387072E-2</c:v>
+                  <c:v>0.1443873355263158</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.4788554597096569E-2</c:v>
+                  <c:v>0.14936951754385969</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.5285316875891248E-2</c:v>
+                  <c:v>0.15255962171052631</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.4092619865815741E-2</c:v>
+                  <c:v>0.1532072368421053</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.5588750964303248E-2</c:v>
+                  <c:v>0.16126644736842111</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1008778081679407</c:v>
+                  <c:v>0.16332579495614041</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.951025083572948E-2</c:v>
+                  <c:v>0.1694969846491228</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.10499216868878131</c:v>
+                  <c:v>0.17109717653508771</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1037414965986395</c:v>
+                  <c:v>0.1814864309210526</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1087091193865863</c:v>
+                  <c:v>0.18309347587719299</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.10734156205437501</c:v>
+                  <c:v>0.1975363212719298</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1101818734366599</c:v>
+                  <c:v>0.19905770285087721</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1104390209692124</c:v>
+                  <c:v>0.21339432565789471</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1148865044299507</c:v>
+                  <c:v>0.20773368969298239</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.11603782406433361</c:v>
+                  <c:v>0.22133703399122809</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.1176859059775113</c:v>
+                  <c:v>0.21552905701754391</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.1148981929541576</c:v>
+                  <c:v>0.2318702028508772</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.1116780045351474</c:v>
+                  <c:v>0.23230537280701749</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11268906187904711</c:v>
+                  <c:v>0.24287280701754391</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.10868574233817239</c:v>
+                  <c:v>0.24576137609649121</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.1117247586319751</c:v>
+                  <c:v>0.25221354166666671</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.1082941767772401</c:v>
+                  <c:v>0.25971422697368418</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1097435537788999</c:v>
+                  <c:v>0.2615919682017544</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.1093402996937607</c:v>
+                  <c:v>0.26942160087719302</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.1126306192580125</c:v>
+                  <c:v>0.2701000548245614</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1055532178507142</c:v>
+                  <c:v>0.2833299067982456</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.10927016854851911</c:v>
+                  <c:v>0.28516310307017539</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>9.6202398485167262E-2</c:v>
+                  <c:v>0.28794202302631577</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.1005505294901466</c:v>
+                  <c:v>0.29283168859649122</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9.2894546134605044E-2</c:v>
+                  <c:v>0.29806400767543861</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9.7423849264791834E-2</c:v>
+                  <c:v>0.30199766995614041</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>8.8780185613764412E-2</c:v>
+                  <c:v>0.29864309210526307</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>9.2771816630432241E-2</c:v>
+                  <c:v>0.30590049342105258</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>8.3964513640507749E-2</c:v>
+                  <c:v>0.30986499451754379</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>8.5782079154685928E-2</c:v>
+                  <c:v>0.31781455592105262</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>7.4099399209855768E-2</c:v>
+                  <c:v>0.3170675712719298</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6.7770063351801205E-2</c:v>
+                  <c:v>0.31846559758771931</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6.428103887603151E-2</c:v>
+                  <c:v>0.32362595942982458</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6.5338850316759012E-2</c:v>
+                  <c:v>0.32929687499999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.6852981742525191E-2</c:v>
+                  <c:v>0.32915638706140349</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.0208055730883418E-2</c:v>
+                  <c:v>0.33329906798245612</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.1874137971339737E-2</c:v>
+                  <c:v>0.34044682017543859</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.9150711831124202E-2</c:v>
+                  <c:v>0.34099163925438603</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.4709072632489422E-2</c:v>
+                  <c:v>0.34980126096491232</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.3323982513967787E-2</c:v>
+                  <c:v>0.35348821271929831</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.9776515417163429E-2</c:v>
+                  <c:v>0.34495271381578951</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>3.00979498328541E-2</c:v>
+                  <c:v>0.35621230811403509</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.6550482736049749E-2</c:v>
+                  <c:v>0.36182839912280701</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.597774504991E-2</c:v>
+                  <c:v>0.36216077302631577</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.4873179512354768E-2</c:v>
+                  <c:v>0.36291118421052632</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.2553007457278441E-2</c:v>
+                  <c:v>0.36545709978070168</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.7737335484021791E-2</c:v>
+                  <c:v>0.36576206140350881</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.274049138555766E-2</c:v>
+                  <c:v>0.36853755482456141</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.2430745494073921E-2</c:v>
+                  <c:v>0.37044270833333331</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.1320335694415221E-2</c:v>
+                  <c:v>0.37098752741228069</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8.5267784089580849E-3</c:v>
+                  <c:v>0.37937568530701749</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.6338686677420112E-3</c:v>
+                  <c:v>0.37650767543859648</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.2299834022956262E-3</c:v>
+                  <c:v>0.37947162828947367</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.1130981602262897E-3</c:v>
+                  <c:v>0.38412828947368421</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.32412277625827E-3</c:v>
+                  <c:v>0.38545778508771927</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.8125160717207841E-3</c:v>
+                  <c:v>0.3903714364035088</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.8617948897772163E-3</c:v>
+                  <c:v>0.38937431469298239</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.6371882086167798E-3</c:v>
+                  <c:v>0.39066269188596492</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.5935900133249174E-3</c:v>
+                  <c:v>0.39362321820175439</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.2832129415340016E-3</c:v>
+                  <c:v>0.39925644188596487</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.6799915842625712E-3</c:v>
+                  <c:v>0.40158991228070168</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>5.1487949131542648E-3</c:v>
+                  <c:v>0.39926672149122799</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>6.0254342286742866E-3</c:v>
+                  <c:v>0.39484991776315792</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.5526801786006498E-3</c:v>
+                  <c:v>0.3995545504385965</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9.0702947845804991E-3</c:v>
+                  <c:v>0.40462582236842098</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.8325735792598829E-3</c:v>
+                  <c:v>0.40302220394736837</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.644294831334596E-3</c:v>
+                  <c:v>0.40391652960526309</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.3364424807723779E-3</c:v>
+                  <c:v>0.40182291666666659</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>7.3813030366785886E-3</c:v>
+                  <c:v>0.40014734100877192</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2.361081889800594E-3</c:v>
+                  <c:v>0.40595531798245621</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>3.711106435701429E-3</c:v>
+                  <c:v>0.4045504385964912</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3208032353835E-3</c:v>
+                  <c:v>0.41191748903508768</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.864319611005914E-3</c:v>
+                  <c:v>0.40692845394736837</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.6104916193281437E-4</c:v>
+                  <c:v>0.41062568530701749</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2.1448441919723221E-3</c:v>
+                  <c:v>0.41258223684210532</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>5.4936063772588071E-4</c:v>
+                  <c:v>0.41295572916666667</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.513663884797905E-3</c:v>
+                  <c:v>0.41592310855263159</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>9.4677046076162427E-4</c:v>
+                  <c:v>0.41227727521929819</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>1.443532739556304E-3</c:v>
+                  <c:v>0.41758840460526309</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>7.3637702503681884E-4</c:v>
+                  <c:v>0.42201206140350878</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.5195081469013721E-3</c:v>
+                  <c:v>0.41631030701754379</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.7858194824321485E-4</c:v>
+                  <c:v>0.41551535087719299</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>7.8897538396802017E-4</c:v>
+                  <c:v>0.41458675986842097</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>5.7858194824321485E-4</c:v>
+                  <c:v>0.41034470942982448</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>7.7728685976108651E-4</c:v>
+                  <c:v>0.41250685307017543</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>5.3767211351894706E-4</c:v>
+                  <c:v>0.41383292214912282</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>7.0715571451948481E-4</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3.1559015358720809E-4</c:v>
+                  <c:v>0.41371299342105261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -951,7 +945,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEC8-475C-8504-CBA2A2BBDD08}"/>
+              <c16:uniqueId val="{00000000-99BC-4A6C-A833-896FCE013CA8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,11 +957,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="554043232"/>
-        <c:axId val="554034592"/>
+        <c:axId val="689634928"/>
+        <c:axId val="689636368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="554043232"/>
+        <c:axId val="689634928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,12 +1018,12 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554034592"/>
+        <c:crossAx val="689636368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="554034592"/>
+        <c:axId val="689636368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1080,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="554043232"/>
+        <c:crossAx val="689634928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1168,7 +1162,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1733,27 +1727,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>643890</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
+        <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5CEB97-2FF0-648F-CE91-AD500F007622}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{961FA1FE-A931-4237-836C-1A23A015E029}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2055,10 +2051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D122"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2082,13 +2078,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2958</v>
+        <v>14006</v>
       </c>
       <c r="C2">
-        <v>1.7287327302054841E-2</v>
+        <v>4.7992050438596487E-2</v>
       </c>
       <c r="D2">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -2096,13 +2092,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>5042</v>
+        <v>16864</v>
       </c>
       <c r="C3">
-        <v>2.9466769525679691E-2</v>
+        <v>5.7785087719298238E-2</v>
       </c>
       <c r="D3">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -2110,13 +2106,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>4996</v>
+        <v>18836</v>
       </c>
       <c r="C4">
-        <v>2.9197933468920211E-2</v>
+        <v>6.4542214912280696E-2</v>
       </c>
       <c r="D4">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -2124,13 +2120,13 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>5547</v>
+        <v>19189</v>
       </c>
       <c r="C5">
-        <v>3.2418121887930432E-2</v>
+        <v>6.5751781798245618E-2</v>
       </c>
       <c r="D5">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -2138,13 +2134,13 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>5636</v>
+        <v>21255</v>
       </c>
       <c r="C6">
-        <v>3.2938261215138979E-2</v>
+        <v>7.2831003289473686E-2</v>
       </c>
       <c r="D6">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -2152,13 +2148,13 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>5668</v>
+        <v>21503</v>
       </c>
       <c r="C7">
-        <v>3.3125277602449918E-2</v>
+        <v>7.3680783991228072E-2</v>
       </c>
       <c r="D7">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -2166,13 +2162,13 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>5968</v>
+        <v>21920</v>
       </c>
       <c r="C8">
-        <v>3.4878556233489962E-2</v>
+        <v>7.5109649122807015E-2</v>
       </c>
       <c r="D8">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -2180,13 +2176,13 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>5932</v>
+        <v>24988</v>
       </c>
       <c r="C9">
-        <v>3.4668162797765148E-2</v>
+        <v>8.5622258771929818E-2</v>
       </c>
       <c r="D9">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -2194,13 +2190,13 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>6133</v>
+        <v>27110</v>
       </c>
       <c r="C10">
-        <v>3.5842859480561977E-2</v>
+        <v>9.2893366228070179E-2</v>
       </c>
       <c r="D10">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -2208,13 +2204,13 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>6449</v>
+        <v>27457</v>
       </c>
       <c r="C11">
-        <v>3.76896463052575E-2</v>
+        <v>9.4082373903508779E-2</v>
       </c>
       <c r="D11">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -2222,13 +2218,13 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>6602</v>
+        <v>26580</v>
       </c>
       <c r="C12">
-        <v>3.8583818407087918E-2</v>
+        <v>9.1077302631578941E-2</v>
       </c>
       <c r="D12">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -2236,13 +2232,13 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>6604</v>
+        <v>27349</v>
       </c>
       <c r="C13">
-        <v>3.8595506931294862E-2</v>
+        <v>9.3712308114035081E-2</v>
       </c>
       <c r="D13">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -2250,13 +2246,13 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>6961</v>
+        <v>28163</v>
       </c>
       <c r="C14">
-        <v>4.0681908502232508E-2</v>
+        <v>9.6501507675438594E-2</v>
       </c>
       <c r="D14">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -2264,13 +2260,13 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>7274</v>
+        <v>30176</v>
       </c>
       <c r="C15">
-        <v>4.2511162540617618E-2</v>
+        <v>0.1033991228070175</v>
       </c>
       <c r="D15">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -2278,13 +2274,13 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>7579</v>
+        <v>30752</v>
       </c>
       <c r="C16">
-        <v>4.4293662482174999E-2</v>
+        <v>0.1053728070175439</v>
       </c>
       <c r="D16">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -2292,13 +2288,13 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>8083</v>
+        <v>30139</v>
       </c>
       <c r="C17">
-        <v>4.7239170582322278E-2</v>
+        <v>0.1032723410087719</v>
       </c>
       <c r="D17">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -2306,13 +2302,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>8235</v>
+        <v>31301</v>
       </c>
       <c r="C18">
-        <v>4.8127498422049227E-2</v>
+        <v>0.1072539747807018</v>
       </c>
       <c r="D18">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -2320,13 +2316,13 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>8549</v>
+        <v>31413</v>
       </c>
       <c r="C19">
-        <v>4.9962596722537812E-2</v>
+        <v>0.1076377467105263</v>
       </c>
       <c r="D19">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -2334,13 +2330,13 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>8746</v>
+        <v>33469</v>
       </c>
       <c r="C20">
-        <v>5.1113916356920773E-2</v>
+        <v>0.1146827028508772</v>
       </c>
       <c r="D20">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -2348,13 +2344,13 @@
         <v>9.5</v>
       </c>
       <c r="B21">
-        <v>9210</v>
+        <v>32795</v>
       </c>
       <c r="C21">
-        <v>5.3825653972929377E-2</v>
+        <v>0.1123732182017544</v>
       </c>
       <c r="D21">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -2362,13 +2358,13 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>9292</v>
+        <v>35096</v>
       </c>
       <c r="C22">
-        <v>5.4304883465413657E-2</v>
+        <v>0.1202576754385965</v>
       </c>
       <c r="D22">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -2376,13 +2372,13 @@
         <v>10.5</v>
       </c>
       <c r="B23">
-        <v>10024</v>
+        <v>34568</v>
       </c>
       <c r="C23">
-        <v>5.8582883325151373E-2</v>
+        <v>0.1184484649122807</v>
       </c>
       <c r="D23">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -2390,13 +2386,13 @@
         <v>11</v>
       </c>
       <c r="B24">
-        <v>9919</v>
+        <v>36889</v>
       </c>
       <c r="C24">
-        <v>5.7969235804287353E-2</v>
+        <v>0.1264014528508772</v>
       </c>
       <c r="D24">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -2404,13 +2400,13 @@
         <v>11.5</v>
       </c>
       <c r="B25">
-        <v>11009</v>
+        <v>35862</v>
       </c>
       <c r="C25">
-        <v>6.4339481497066184E-2</v>
+        <v>0.12288240131578949</v>
       </c>
       <c r="D25">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -2418,13 +2414,13 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>11018</v>
+        <v>37692</v>
       </c>
       <c r="C26">
-        <v>6.4392079855997375E-2</v>
+        <v>0.12915296052631581</v>
       </c>
       <c r="D26">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -2432,13 +2428,13 @@
         <v>12.5</v>
       </c>
       <c r="B27">
-        <v>12148</v>
+        <v>37904</v>
       </c>
       <c r="C27">
-        <v>7.0996096032914888E-2</v>
+        <v>0.1298793859649123</v>
       </c>
       <c r="D27">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -2446,13 +2442,13 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>12186</v>
+        <v>40819</v>
       </c>
       <c r="C28">
-        <v>7.1218177992846618E-2</v>
+        <v>0.13986773574561401</v>
       </c>
       <c r="D28">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -2460,13 +2456,13 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>13366</v>
+        <v>40438</v>
       </c>
       <c r="C29">
-        <v>7.8114407274937472E-2</v>
+        <v>0.138562225877193</v>
       </c>
       <c r="D29">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -2474,13 +2470,13 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>13438</v>
+        <v>42138</v>
       </c>
       <c r="C30">
-        <v>7.8535194146387072E-2</v>
+        <v>0.1443873355263158</v>
       </c>
       <c r="D30">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
@@ -2488,13 +2484,13 @@
         <v>14.5</v>
       </c>
       <c r="B31">
-        <v>14508</v>
+        <v>43592</v>
       </c>
       <c r="C31">
-        <v>8.4788554597096569E-2</v>
+        <v>0.14936951754385969</v>
       </c>
       <c r="D31">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -2502,13 +2498,13 @@
         <v>15</v>
       </c>
       <c r="B32">
-        <v>14593</v>
+        <v>44523</v>
       </c>
       <c r="C32">
-        <v>8.5285316875891248E-2</v>
+        <v>0.15255962171052631</v>
       </c>
       <c r="D32">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -2516,13 +2512,13 @@
         <v>15.5</v>
       </c>
       <c r="B33">
-        <v>16100</v>
+        <v>44712</v>
       </c>
       <c r="C33">
-        <v>9.4092619865815741E-2</v>
+        <v>0.1532072368421053</v>
       </c>
       <c r="D33">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
@@ -2530,13 +2526,13 @@
         <v>16</v>
       </c>
       <c r="B34">
-        <v>16356</v>
+        <v>47064</v>
       </c>
       <c r="C34">
-        <v>9.5588750964303248E-2</v>
+        <v>0.16126644736842111</v>
       </c>
       <c r="D34">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
@@ -2544,13 +2540,13 @@
         <v>16.5</v>
       </c>
       <c r="B35">
-        <v>17261</v>
+        <v>47665</v>
       </c>
       <c r="C35">
-        <v>0.1008778081679407</v>
+        <v>0.16332579495614041</v>
       </c>
       <c r="D35">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
@@ -2558,13 +2554,13 @@
         <v>17</v>
       </c>
       <c r="B36">
-        <v>17027</v>
+        <v>49466</v>
       </c>
       <c r="C36">
-        <v>9.951025083572948E-2</v>
+        <v>0.1694969846491228</v>
       </c>
       <c r="D36">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
@@ -2572,13 +2568,13 @@
         <v>17.5</v>
       </c>
       <c r="B37">
-        <v>17965</v>
+        <v>49933</v>
       </c>
       <c r="C37">
-        <v>0.10499216868878131</v>
+        <v>0.17109717653508771</v>
       </c>
       <c r="D37">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
@@ -2586,13 +2582,13 @@
         <v>18</v>
       </c>
       <c r="B38">
-        <v>17751</v>
+        <v>52965</v>
       </c>
       <c r="C38">
-        <v>0.1037414965986395</v>
+        <v>0.1814864309210526</v>
       </c>
       <c r="D38">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
@@ -2600,13 +2596,13 @@
         <v>18.5</v>
       </c>
       <c r="B39">
-        <v>18601</v>
+        <v>53434</v>
       </c>
       <c r="C39">
-        <v>0.1087091193865863</v>
+        <v>0.18309347587719299</v>
       </c>
       <c r="D39">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
@@ -2614,13 +2610,13 @@
         <v>19</v>
       </c>
       <c r="B40">
-        <v>18367</v>
+        <v>57649</v>
       </c>
       <c r="C40">
-        <v>0.10734156205437501</v>
+        <v>0.1975363212719298</v>
       </c>
       <c r="D40">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
@@ -2628,13 +2624,13 @@
         <v>19.5</v>
       </c>
       <c r="B41">
-        <v>18853</v>
+        <v>58093</v>
       </c>
       <c r="C41">
-        <v>0.1101818734366599</v>
+        <v>0.19905770285087721</v>
       </c>
       <c r="D41">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
@@ -2642,13 +2638,13 @@
         <v>20</v>
       </c>
       <c r="B42">
-        <v>18897</v>
+        <v>62277</v>
       </c>
       <c r="C42">
-        <v>0.1104390209692124</v>
+        <v>0.21339432565789471</v>
       </c>
       <c r="D42">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
@@ -2656,13 +2652,13 @@
         <v>20.5</v>
       </c>
       <c r="B43">
-        <v>19658</v>
+        <v>60625</v>
       </c>
       <c r="C43">
-        <v>0.1148865044299507</v>
+        <v>0.20773368969298239</v>
       </c>
       <c r="D43">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
@@ -2670,13 +2666,13 @@
         <v>21</v>
       </c>
       <c r="B44">
-        <v>19855</v>
+        <v>64595</v>
       </c>
       <c r="C44">
-        <v>0.11603782406433361</v>
+        <v>0.22133703399122809</v>
       </c>
       <c r="D44">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
@@ -2684,13 +2680,13 @@
         <v>21.5</v>
       </c>
       <c r="B45">
-        <v>20137</v>
+        <v>62900</v>
       </c>
       <c r="C45">
-        <v>0.1176859059775113</v>
+        <v>0.21552905701754391</v>
       </c>
       <c r="D45">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
@@ -2698,13 +2694,13 @@
         <v>22</v>
       </c>
       <c r="B46">
-        <v>19660</v>
+        <v>67669</v>
       </c>
       <c r="C46">
-        <v>0.1148981929541576</v>
+        <v>0.2318702028508772</v>
       </c>
       <c r="D46">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
@@ -2712,13 +2708,13 @@
         <v>22.5</v>
       </c>
       <c r="B47">
-        <v>19109</v>
+        <v>67796</v>
       </c>
       <c r="C47">
-        <v>0.1116780045351474</v>
+        <v>0.23230537280701749</v>
       </c>
       <c r="D47">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
@@ -2726,13 +2722,13 @@
         <v>23</v>
       </c>
       <c r="B48">
-        <v>19282</v>
+        <v>70880</v>
       </c>
       <c r="C48">
-        <v>0.11268906187904711</v>
+        <v>0.24287280701754391</v>
       </c>
       <c r="D48">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
@@ -2740,13 +2736,13 @@
         <v>23.5</v>
       </c>
       <c r="B49">
-        <v>18597</v>
+        <v>71723</v>
       </c>
       <c r="C49">
-        <v>0.10868574233817239</v>
+        <v>0.24576137609649121</v>
       </c>
       <c r="D49">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
@@ -2754,13 +2750,13 @@
         <v>24</v>
       </c>
       <c r="B50">
-        <v>19117</v>
+        <v>73606</v>
       </c>
       <c r="C50">
-        <v>0.1117247586319751</v>
+        <v>0.25221354166666671</v>
       </c>
       <c r="D50">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
@@ -2768,13 +2764,13 @@
         <v>24.5</v>
       </c>
       <c r="B51">
-        <v>18530</v>
+        <v>75795</v>
       </c>
       <c r="C51">
-        <v>0.1082941767772401</v>
+        <v>0.25971422697368418</v>
       </c>
       <c r="D51">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
@@ -2782,13 +2778,13 @@
         <v>25</v>
       </c>
       <c r="B52">
-        <v>18778</v>
+        <v>76343</v>
       </c>
       <c r="C52">
-        <v>0.1097435537788999</v>
+        <v>0.2615919682017544</v>
       </c>
       <c r="D52">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
@@ -2796,13 +2792,13 @@
         <v>25.5</v>
       </c>
       <c r="B53">
-        <v>18709</v>
+        <v>78628</v>
       </c>
       <c r="C53">
-        <v>0.1093402996937607</v>
+        <v>0.26942160087719302</v>
       </c>
       <c r="D53">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
@@ -2810,13 +2806,13 @@
         <v>26</v>
       </c>
       <c r="B54">
-        <v>19272</v>
+        <v>78826</v>
       </c>
       <c r="C54">
-        <v>0.1126306192580125</v>
+        <v>0.2701000548245614</v>
       </c>
       <c r="D54">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
@@ -2824,13 +2820,13 @@
         <v>26.5</v>
       </c>
       <c r="B55">
-        <v>18061</v>
+        <v>82687</v>
       </c>
       <c r="C55">
-        <v>0.1055532178507142</v>
+        <v>0.2833299067982456</v>
       </c>
       <c r="D55">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
@@ -2838,13 +2834,13 @@
         <v>27</v>
       </c>
       <c r="B56">
-        <v>18697</v>
+        <v>83222</v>
       </c>
       <c r="C56">
-        <v>0.10927016854851911</v>
+        <v>0.28516310307017539</v>
       </c>
       <c r="D56">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
@@ -2852,13 +2848,13 @@
         <v>27.5</v>
       </c>
       <c r="B57">
-        <v>16461</v>
+        <v>84033</v>
       </c>
       <c r="C57">
-        <v>9.6202398485167262E-2</v>
+        <v>0.28794202302631577</v>
       </c>
       <c r="D57">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
@@ -2866,13 +2862,13 @@
         <v>28</v>
       </c>
       <c r="B58">
-        <v>17205</v>
+        <v>85460</v>
       </c>
       <c r="C58">
-        <v>0.1005505294901466</v>
+        <v>0.29283168859649122</v>
       </c>
       <c r="D58">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
@@ -2880,13 +2876,13 @@
         <v>28.5</v>
       </c>
       <c r="B59">
-        <v>15895</v>
+        <v>86987</v>
       </c>
       <c r="C59">
-        <v>9.2894546134605044E-2</v>
+        <v>0.29806400767543861</v>
       </c>
       <c r="D59">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
@@ -2894,13 +2890,13 @@
         <v>29</v>
       </c>
       <c r="B60">
-        <v>16670</v>
+        <v>88135</v>
       </c>
       <c r="C60">
-        <v>9.7423849264791834E-2</v>
+        <v>0.30199766995614041</v>
       </c>
       <c r="D60">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
@@ -2908,13 +2904,13 @@
         <v>29.5</v>
       </c>
       <c r="B61">
-        <v>15191</v>
+        <v>87156</v>
       </c>
       <c r="C61">
-        <v>8.8780185613764412E-2</v>
+        <v>0.29864309210526307</v>
       </c>
       <c r="D61">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
@@ -2922,13 +2918,13 @@
         <v>30</v>
       </c>
       <c r="B62">
-        <v>15874</v>
+        <v>89274</v>
       </c>
       <c r="C62">
-        <v>9.2771816630432241E-2</v>
+        <v>0.30590049342105258</v>
       </c>
       <c r="D62">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
@@ -2936,13 +2932,13 @@
         <v>30.5</v>
       </c>
       <c r="B63">
-        <v>14367</v>
+        <v>90431</v>
       </c>
       <c r="C63">
-        <v>8.3964513640507749E-2</v>
+        <v>0.30986499451754379</v>
       </c>
       <c r="D63">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
@@ -2950,13 +2946,13 @@
         <v>31</v>
       </c>
       <c r="B64">
-        <v>14678</v>
+        <v>92751</v>
       </c>
       <c r="C64">
-        <v>8.5782079154685928E-2</v>
+        <v>0.31781455592105262</v>
       </c>
       <c r="D64">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
@@ -2964,13 +2960,13 @@
         <v>31.5</v>
       </c>
       <c r="B65">
-        <v>12679</v>
+        <v>92533</v>
       </c>
       <c r="C65">
-        <v>7.4099399209855768E-2</v>
+        <v>0.3170675712719298</v>
       </c>
       <c r="D65">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
@@ -2978,13 +2974,13 @@
         <v>32</v>
       </c>
       <c r="B66">
-        <v>11596</v>
+        <v>92941</v>
       </c>
       <c r="C66">
-        <v>6.7770063351801205E-2</v>
+        <v>0.31846559758771931</v>
       </c>
       <c r="D66">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
@@ -2992,13 +2988,13 @@
         <v>32.5</v>
       </c>
       <c r="B67">
-        <v>10999</v>
+        <v>94447</v>
       </c>
       <c r="C67">
-        <v>6.428103887603151E-2</v>
+        <v>0.32362595942982458</v>
       </c>
       <c r="D67">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
@@ -3006,13 +3002,13 @@
         <v>33</v>
       </c>
       <c r="B68">
-        <v>11180</v>
+        <v>96102</v>
       </c>
       <c r="C68">
-        <v>6.5338850316759012E-2</v>
+        <v>0.32929687499999999</v>
       </c>
       <c r="D68">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
@@ -3020,13 +3016,13 @@
         <v>33.5</v>
       </c>
       <c r="B69">
-        <v>9728</v>
+        <v>96061</v>
       </c>
       <c r="C69">
-        <v>5.6852981742525191E-2</v>
+        <v>0.32915638706140349</v>
       </c>
       <c r="D69">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
@@ -3034,13 +3030,13 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>8591</v>
+        <v>97270</v>
       </c>
       <c r="C70">
-        <v>5.0208055730883418E-2</v>
+        <v>0.33329906798245612</v>
       </c>
       <c r="D70">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
@@ -3048,13 +3044,13 @@
         <v>34.5</v>
       </c>
       <c r="B71">
-        <v>7165</v>
+        <v>99356</v>
       </c>
       <c r="C71">
-        <v>4.1874137971339737E-2</v>
+        <v>0.34044682017543859</v>
       </c>
       <c r="D71">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
@@ -3062,13 +3058,13 @@
         <v>35</v>
       </c>
       <c r="B72">
-        <v>6699</v>
+        <v>99515</v>
       </c>
       <c r="C72">
-        <v>3.9150711831124202E-2</v>
+        <v>0.34099163925438603</v>
       </c>
       <c r="D72">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
@@ -3076,13 +3072,13 @@
         <v>35.5</v>
       </c>
       <c r="B73">
-        <v>5939</v>
+        <v>102086</v>
       </c>
       <c r="C73">
-        <v>3.4709072632489422E-2</v>
+        <v>0.34980126096491232</v>
       </c>
       <c r="D73">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
@@ -3090,13 +3086,13 @@
         <v>36</v>
       </c>
       <c r="B74">
-        <v>5702</v>
+        <v>103162</v>
       </c>
       <c r="C74">
-        <v>3.3323982513967787E-2</v>
+        <v>0.35348821271929831</v>
       </c>
       <c r="D74">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
@@ -3104,13 +3100,13 @@
         <v>36.5</v>
       </c>
       <c r="B75">
-        <v>5095</v>
+        <v>100671</v>
       </c>
       <c r="C75">
-        <v>2.9776515417163429E-2</v>
+        <v>0.34495271381578951</v>
       </c>
       <c r="D75">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
@@ -3118,13 +3114,13 @@
         <v>37</v>
       </c>
       <c r="B76">
-        <v>5150</v>
+        <v>103957</v>
       </c>
       <c r="C76">
-        <v>3.00979498328541E-2</v>
+        <v>0.35621230811403509</v>
       </c>
       <c r="D76">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
@@ -3132,13 +3128,13 @@
         <v>37.5</v>
       </c>
       <c r="B77">
-        <v>4543</v>
+        <v>105596</v>
       </c>
       <c r="C77">
-        <v>2.6550482736049749E-2</v>
+        <v>0.36182839912280701</v>
       </c>
       <c r="D77">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
@@ -3146,13 +3142,13 @@
         <v>38</v>
       </c>
       <c r="B78">
-        <v>4445</v>
+        <v>105693</v>
       </c>
       <c r="C78">
-        <v>2.597774504991E-2</v>
+        <v>0.36216077302631577</v>
       </c>
       <c r="D78">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
@@ -3160,13 +3156,13 @@
         <v>38.5</v>
       </c>
       <c r="B79">
-        <v>4256</v>
+        <v>105912</v>
       </c>
       <c r="C79">
-        <v>2.4873179512354768E-2</v>
+        <v>0.36291118421052632</v>
       </c>
       <c r="D79">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
@@ -3174,13 +3170,13 @@
         <v>39</v>
       </c>
       <c r="B80">
-        <v>3859</v>
+        <v>106655</v>
       </c>
       <c r="C80">
-        <v>2.2553007457278441E-2</v>
+        <v>0.36545709978070168</v>
       </c>
       <c r="D80">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
@@ -3188,13 +3184,13 @@
         <v>39.5</v>
       </c>
       <c r="B81">
-        <v>3035</v>
+        <v>106744</v>
       </c>
       <c r="C81">
-        <v>1.7737335484021791E-2</v>
+        <v>0.36576206140350881</v>
       </c>
       <c r="D81">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
@@ -3202,13 +3198,13 @@
         <v>40</v>
       </c>
       <c r="B82">
-        <v>2180</v>
+        <v>107554</v>
       </c>
       <c r="C82">
-        <v>1.274049138555766E-2</v>
+        <v>0.36853755482456141</v>
       </c>
       <c r="D82">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
@@ -3216,13 +3212,13 @@
         <v>40.5</v>
       </c>
       <c r="B83">
-        <v>2127</v>
+        <v>108110</v>
       </c>
       <c r="C83">
-        <v>1.2430745494073921E-2</v>
+        <v>0.37044270833333331</v>
       </c>
       <c r="D83">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.4">
@@ -3230,13 +3226,13 @@
         <v>41</v>
       </c>
       <c r="B84">
-        <v>1937</v>
+        <v>108269</v>
       </c>
       <c r="C84">
-        <v>1.1320335694415221E-2</v>
+        <v>0.37098752741228069</v>
       </c>
       <c r="D84">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.4">
@@ -3244,13 +3240,13 @@
         <v>41.5</v>
       </c>
       <c r="B85">
-        <v>1459</v>
+        <v>110717</v>
       </c>
       <c r="C85">
-        <v>8.5267784089580849E-3</v>
+        <v>0.37937568530701749</v>
       </c>
       <c r="D85">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.4">
@@ -3258,13 +3254,13 @@
         <v>42</v>
       </c>
       <c r="B86">
-        <v>964</v>
+        <v>109880</v>
       </c>
       <c r="C86">
-        <v>5.6338686677420112E-3</v>
+        <v>0.37650767543859648</v>
       </c>
       <c r="D86">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.4">
@@ -3272,13 +3268,13 @@
         <v>42.5</v>
       </c>
       <c r="B87">
-        <v>1066</v>
+        <v>110745</v>
       </c>
       <c r="C87">
-        <v>6.2299834022956262E-3</v>
+        <v>0.37947162828947367</v>
       </c>
       <c r="D87">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.4">
@@ -3286,13 +3282,13 @@
         <v>43</v>
       </c>
       <c r="B88">
-        <v>1046</v>
+        <v>112104</v>
       </c>
       <c r="C88">
-        <v>6.1130981602262897E-3</v>
+        <v>0.38412828947368421</v>
       </c>
       <c r="D88">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.4">
@@ -3300,13 +3296,13 @@
         <v>43.5</v>
       </c>
       <c r="B89">
-        <v>911</v>
+        <v>112492</v>
       </c>
       <c r="C89">
-        <v>5.32412277625827E-3</v>
+        <v>0.38545778508771927</v>
       </c>
       <c r="D89">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.4">
@@ -3314,13 +3310,13 @@
         <v>44</v>
       </c>
       <c r="B90">
-        <v>1679</v>
+        <v>113926</v>
       </c>
       <c r="C90">
-        <v>9.8125160717207841E-3</v>
+        <v>0.3903714364035088</v>
       </c>
       <c r="D90">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.4">
@@ -3328,13 +3324,13 @@
         <v>44.5</v>
       </c>
       <c r="B91">
-        <v>1003</v>
+        <v>113635</v>
       </c>
       <c r="C91">
-        <v>5.8617948897772163E-3</v>
+        <v>0.38937431469298239</v>
       </c>
       <c r="D91">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.4">
@@ -3342,13 +3338,13 @@
         <v>45</v>
       </c>
       <c r="B92">
-        <v>1649</v>
+        <v>114011</v>
       </c>
       <c r="C92">
-        <v>9.6371882086167798E-3</v>
+        <v>0.39066269188596492</v>
       </c>
       <c r="D92">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.4">
@@ -3356,13 +3352,13 @@
         <v>45.5</v>
       </c>
       <c r="B93">
-        <v>786</v>
+        <v>114875</v>
       </c>
       <c r="C93">
-        <v>4.5935900133249174E-3</v>
+        <v>0.39362321820175439</v>
       </c>
       <c r="D93">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.4">
@@ -3370,13 +3366,13 @@
         <v>46</v>
       </c>
       <c r="B94">
-        <v>904</v>
+        <v>116519</v>
       </c>
       <c r="C94">
-        <v>5.2832129415340016E-3</v>
+        <v>0.39925644188596487</v>
       </c>
       <c r="D94">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.4">
@@ -3384,13 +3380,13 @@
         <v>46.5</v>
       </c>
       <c r="B95">
-        <v>1143</v>
+        <v>117200</v>
       </c>
       <c r="C95">
-        <v>6.6799915842625712E-3</v>
+        <v>0.40158991228070168</v>
       </c>
       <c r="D95">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.4">
@@ -3398,13 +3394,13 @@
         <v>47</v>
       </c>
       <c r="B96">
-        <v>881</v>
+        <v>116522</v>
       </c>
       <c r="C96">
-        <v>5.1487949131542648E-3</v>
+        <v>0.39926672149122799</v>
       </c>
       <c r="D96">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.4">
@@ -3412,13 +3408,13 @@
         <v>47.5</v>
       </c>
       <c r="B97">
-        <v>1031</v>
+        <v>115233</v>
       </c>
       <c r="C97">
-        <v>6.0254342286742866E-3</v>
+        <v>0.39484991776315792</v>
       </c>
       <c r="D97">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.4">
@@ -3426,13 +3422,13 @@
         <v>48</v>
       </c>
       <c r="B98">
-        <v>779</v>
+        <v>116606</v>
       </c>
       <c r="C98">
-        <v>4.5526801786006498E-3</v>
+        <v>0.3995545504385965</v>
       </c>
       <c r="D98">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.4">
@@ -3440,13 +3436,13 @@
         <v>48.5</v>
       </c>
       <c r="B99">
-        <v>1552</v>
+        <v>118086</v>
       </c>
       <c r="C99">
-        <v>9.0702947845804991E-3</v>
+        <v>0.40462582236842098</v>
       </c>
       <c r="D99">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.4">
@@ -3454,13 +3450,13 @@
         <v>49</v>
       </c>
       <c r="B100">
-        <v>998</v>
+        <v>117618</v>
       </c>
       <c r="C100">
-        <v>5.8325735792598829E-3</v>
+        <v>0.40302220394736837</v>
       </c>
       <c r="D100">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.4">
@@ -3468,13 +3464,13 @@
         <v>49.5</v>
       </c>
       <c r="B101">
-        <v>1308</v>
+        <v>117879</v>
       </c>
       <c r="C101">
-        <v>7.644294831334596E-3</v>
+        <v>0.40391652960526309</v>
       </c>
       <c r="D101">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.4">
@@ -3482,13 +3478,13 @@
         <v>50</v>
       </c>
       <c r="B102">
-        <v>742</v>
+        <v>117268</v>
       </c>
       <c r="C102">
-        <v>4.3364424807723779E-3</v>
+        <v>0.40182291666666659</v>
       </c>
       <c r="D102">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.4">
@@ -3496,13 +3492,13 @@
         <v>50.5</v>
       </c>
       <c r="B103">
-        <v>1263</v>
+        <v>116779</v>
       </c>
       <c r="C103">
-        <v>7.3813030366785886E-3</v>
+        <v>0.40014734100877192</v>
       </c>
       <c r="D103">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.4">
@@ -3510,13 +3506,13 @@
         <v>51</v>
       </c>
       <c r="B104">
-        <v>404</v>
+        <v>118474</v>
       </c>
       <c r="C104">
-        <v>2.361081889800594E-3</v>
+        <v>0.40595531798245621</v>
       </c>
       <c r="D104">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.4">
@@ -3524,13 +3520,13 @@
         <v>51.5</v>
       </c>
       <c r="B105">
-        <v>635</v>
+        <v>118064</v>
       </c>
       <c r="C105">
-        <v>3.711106435701429E-3</v>
+        <v>0.4045504385964912</v>
       </c>
       <c r="D105">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.4">
@@ -3538,13 +3534,13 @@
         <v>52</v>
       </c>
       <c r="B106">
-        <v>226</v>
+        <v>120214</v>
       </c>
       <c r="C106">
-        <v>1.3208032353835E-3</v>
+        <v>0.41191748903508768</v>
       </c>
       <c r="D106">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.4">
@@ -3552,13 +3548,13 @@
         <v>52.5</v>
       </c>
       <c r="B107">
-        <v>319</v>
+        <v>118758</v>
       </c>
       <c r="C107">
-        <v>1.864319611005914E-3</v>
+        <v>0.40692845394736837</v>
       </c>
       <c r="D107">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.4">
@@ -3566,13 +3562,13 @@
         <v>53</v>
       </c>
       <c r="B108">
-        <v>96</v>
+        <v>119837</v>
       </c>
       <c r="C108">
-        <v>5.6104916193281437E-4</v>
+        <v>0.41062568530701749</v>
       </c>
       <c r="D108">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.4">
@@ -3580,13 +3576,13 @@
         <v>53.5</v>
       </c>
       <c r="B109">
-        <v>367</v>
+        <v>120408</v>
       </c>
       <c r="C109">
-        <v>2.1448441919723221E-3</v>
+        <v>0.41258223684210532</v>
       </c>
       <c r="D109">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.4">
@@ -3594,13 +3590,13 @@
         <v>54</v>
       </c>
       <c r="B110">
-        <v>94</v>
+        <v>120517</v>
       </c>
       <c r="C110">
-        <v>5.4936063772588071E-4</v>
+        <v>0.41295572916666667</v>
       </c>
       <c r="D110">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.4">
@@ -3608,13 +3604,13 @@
         <v>54.5</v>
       </c>
       <c r="B111">
-        <v>259</v>
+        <v>121383</v>
       </c>
       <c r="C111">
-        <v>1.513663884797905E-3</v>
+        <v>0.41592310855263159</v>
       </c>
       <c r="D111">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.4">
@@ -3622,13 +3618,13 @@
         <v>55</v>
       </c>
       <c r="B112">
-        <v>162</v>
+        <v>120319</v>
       </c>
       <c r="C112">
-        <v>9.4677046076162427E-4</v>
+        <v>0.41227727521929819</v>
       </c>
       <c r="D112">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.4">
@@ -3636,13 +3632,13 @@
         <v>55.5</v>
       </c>
       <c r="B113">
-        <v>247</v>
+        <v>121869</v>
       </c>
       <c r="C113">
-        <v>1.443532739556304E-3</v>
+        <v>0.41758840460526309</v>
       </c>
       <c r="D113">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.4">
@@ -3650,13 +3646,13 @@
         <v>56</v>
       </c>
       <c r="B114">
-        <v>126</v>
+        <v>123160</v>
       </c>
       <c r="C114">
-        <v>7.3637702503681884E-4</v>
+        <v>0.42201206140350878</v>
       </c>
       <c r="D114">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.4">
@@ -3664,13 +3660,13 @@
         <v>56.5</v>
       </c>
       <c r="B115">
-        <v>260</v>
+        <v>121496</v>
       </c>
       <c r="C115">
-        <v>1.5195081469013721E-3</v>
+        <v>0.41631030701754379</v>
       </c>
       <c r="D115">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.4">
@@ -3678,13 +3674,13 @@
         <v>57</v>
       </c>
       <c r="B116">
-        <v>99</v>
+        <v>121264</v>
       </c>
       <c r="C116">
-        <v>5.7858194824321485E-4</v>
+        <v>0.41551535087719299</v>
       </c>
       <c r="D116">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.4">
@@ -3692,13 +3688,13 @@
         <v>57.5</v>
       </c>
       <c r="B117">
-        <v>135</v>
+        <v>120993</v>
       </c>
       <c r="C117">
-        <v>7.8897538396802017E-4</v>
+        <v>0.41458675986842097</v>
       </c>
       <c r="D117">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.4">
@@ -3706,13 +3702,13 @@
         <v>58</v>
       </c>
       <c r="B118">
-        <v>99</v>
+        <v>119755</v>
       </c>
       <c r="C118">
-        <v>5.7858194824321485E-4</v>
+        <v>0.41034470942982448</v>
       </c>
       <c r="D118">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.4">
@@ -3720,13 +3716,13 @@
         <v>58.5</v>
       </c>
       <c r="B119">
-        <v>133</v>
+        <v>120386</v>
       </c>
       <c r="C119">
-        <v>7.7728685976108651E-4</v>
+        <v>0.41250685307017543</v>
       </c>
       <c r="D119">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.4">
@@ -3734,13 +3730,13 @@
         <v>59</v>
       </c>
       <c r="B120">
-        <v>92</v>
+        <v>120773</v>
       </c>
       <c r="C120">
-        <v>5.3767211351894706E-4</v>
+        <v>0.41383292214912282</v>
       </c>
       <c r="D120">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.4">
@@ -3748,27 +3744,13 @@
         <v>59.5</v>
       </c>
       <c r="B121">
-        <v>121</v>
+        <v>120738</v>
       </c>
       <c r="C121">
-        <v>7.0715571451948481E-4</v>
+        <v>0.41371299342105261</v>
       </c>
       <c r="D121">
-        <v>171108</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A122">
-        <v>60</v>
-      </c>
-      <c r="B122">
-        <v>54</v>
-      </c>
-      <c r="C122">
-        <v>3.1559015358720809E-4</v>
-      </c>
-      <c r="D122">
-        <v>171108</v>
+        <v>291840</v>
       </c>
     </row>
   </sheetData>
